--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45259,6 +45259,41 @@
         <v>3200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45294,6 +45294,43 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45331,6 +45331,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45368,6 +45368,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45405,6 +45405,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45442,6 +45442,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45479,6 +45479,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45516,6 +45516,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45551,6 +45551,43 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45588,6 +45588,43 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45625,6 +45625,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45662,6 +45662,43 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45699,6 +45699,80 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45773,6 +45773,80 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45847,6 +45847,43 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45884,6 +45884,43 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45921,6 +45921,43 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45958,6 +45958,41 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>6800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45993,6 +45993,80 @@
         <v>6800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46067,6 +46067,43 @@
         </is>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46104,6 +46104,43 @@
         </is>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1241" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1453"/>
+  <dimension ref="A1:I1454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53561,6 +53561,41 @@
         </is>
       </c>
     </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1454" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1454"/>
+  <dimension ref="A1:I1455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53596,6 +53596,43 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1455" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1455" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1455"/>
+  <dimension ref="A1:I1456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53633,6 +53633,41 @@
         </is>
       </c>
     </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1456" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>4600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1456"/>
+  <dimension ref="A1:I1457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53668,6 +53668,43 @@
         <v>4600</v>
       </c>
     </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1457" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1457" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1457"/>
+  <dimension ref="A1:I1458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53705,6 +53705,43 @@
         </is>
       </c>
     </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1458" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1458" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1458"/>
+  <dimension ref="A1:I1459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53742,6 +53742,43 @@
         </is>
       </c>
     </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1459" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1459" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1459"/>
+  <dimension ref="A1:I1460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53779,6 +53779,43 @@
         </is>
       </c>
     </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1460" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1460" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1460"/>
+  <dimension ref="A1:I1461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53816,6 +53816,41 @@
         </is>
       </c>
     </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1461" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>5700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1461"/>
+  <dimension ref="A1:I1462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53851,6 +53851,43 @@
         <v>5700</v>
       </c>
     </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1462" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1462" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1462"/>
+  <dimension ref="A1:I1463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53888,6 +53888,41 @@
         </is>
       </c>
     </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1463" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>4200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1463"/>
+  <dimension ref="A1:I1464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53923,6 +53923,43 @@
         <v>4200</v>
       </c>
     </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1464" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1464" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1464"/>
+  <dimension ref="A1:I1465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53960,6 +53960,43 @@
         </is>
       </c>
     </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1465" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1465" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1465"/>
+  <dimension ref="A1:I1466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53997,6 +53997,41 @@
         </is>
       </c>
     </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1466" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>8300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1466"/>
+  <dimension ref="A1:I1467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54032,6 +54032,43 @@
         <v>8300</v>
       </c>
     </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1467" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1467" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9628.xlsx
+++ b/data/9628.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1467"/>
+  <dimension ref="A1:I1468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54069,6 +54069,43 @@
         </is>
       </c>
     </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>9628</t>
+        </is>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>LEBTECH</t>
+        </is>
+      </c>
+      <c r="E1468" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1468" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
